--- a/AAII_Financials/Yearly/NVST_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVST_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>NVST</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,142 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2751600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2844500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2810900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2785400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2736300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2193000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1238500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1242700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1189700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1184300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1214400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1079500</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1513100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1601800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1621200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1601100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1521900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1113500</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,35 +812,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>154700</v>
+      </c>
+      <c r="E12" s="3">
         <v>172000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>172400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>142800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>133800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>82400</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,9 +899,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,62 +943,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2474100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2546100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2424300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2382600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2386300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1892000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>277500</v>
+      </c>
+      <c r="E18" s="3">
         <v>298400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>386600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>402800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>350000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>301000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,50 +1017,54 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>407500</v>
+      </c>
+      <c r="E21" s="3">
         <v>431100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>508100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>528900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1038,90 +1074,102 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>275500</v>
+      </c>
+      <c r="E23" s="3">
         <v>301100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>386700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>401700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>350500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>299700</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E24" s="3">
         <v>70400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>120400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>129700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>75000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>95900</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,63 +1194,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E26" s="3">
         <v>230700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>266300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>272000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>275500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>203800</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E27" s="3">
         <v>230700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>266300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>272000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>275500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>203800</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,21 +1284,24 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
         <v>34800</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,63 +1374,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E33" s="3">
         <v>230700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>301100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>272000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>275500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>203800</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,68 +1464,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E35" s="3">
         <v>230700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>301100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>272000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>275500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>203800</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,35 +1560,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+        <v>211200</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,21 +1617,24 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>443600</v>
+      </c>
+      <c r="E43" s="3">
         <v>459800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>463100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1555,21 +1647,24 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>277900</v>
+      </c>
+      <c r="E44" s="3">
         <v>278700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>275700</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,21 +1677,24 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E45" s="3">
         <v>48300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>55700</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1609,21 +1707,24 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1001900</v>
+      </c>
+      <c r="E46" s="3">
         <v>786800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>794500</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1636,9 +1737,12 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,21 +1767,24 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>490400</v>
+      </c>
+      <c r="E48" s="3">
         <v>261600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>231200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1690,21 +1797,24 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4591600</v>
+      </c>
+      <c r="E49" s="3">
         <v>4715800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4885900</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,21 +1887,24 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E52" s="3">
         <v>77400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>81200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,36 +1947,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6158300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5841600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5992800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5727300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5807400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+      <c r="I54" s="3">
+        <v>6141700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,20 +2008,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E57" s="3">
         <v>217400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>222400</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,48 +2035,54 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+        <v>3900</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>497300</v>
+      </c>
+      <c r="E59" s="3">
         <v>423600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>405800</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,21 +2095,24 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>709200</v>
+      </c>
+      <c r="E60" s="3">
         <v>641000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>628200</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,14 +2125,17 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1321000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2013,21 +2155,24 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>585300</v>
+      </c>
+      <c r="E62" s="3">
         <v>374200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>370000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,36 +2275,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2618100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1018500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1002300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1050800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1018600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+      <c r="I66" s="3">
+        <v>1187600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,21 +2439,24 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E72" s="3">
         <v>4901300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4989900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,36 +2559,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3540200</v>
+      </c>
+      <c r="E76" s="3">
         <v>4823100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4990500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4676500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4788800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>4954100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,68 +2619,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E81" s="3">
         <v>230700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>301100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>272000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>275500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>203800</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,23 +2701,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>128500</v>
+      </c>
+      <c r="E83" s="3">
         <v>130000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>121400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>127200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,24 +2878,27 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>397500</v>
+      </c>
+      <c r="E89" s="3">
         <v>400100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>359100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>417000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,23 +2925,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-77800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-72200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-48900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,24 +3012,27 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-78400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-75500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-54900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-59400</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,24 +3176,27 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-107700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-324600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-304200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-357600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,41 +3206,47 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>211200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3006,16 +3257,19 @@
       <c r="G102" s="3">
         <v>0</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3"/>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NVST_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVST_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>NVST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2282000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2751600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2844500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2810900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2785400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2736300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2193000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1238500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1242700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1189700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1184300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1214400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1079500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1212000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1513100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1601800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1621200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1601100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1521900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1113500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E12" s="3">
         <v>154700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>172000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>172400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>142800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>133800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>82400</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,39 +888,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>180400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2248700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2474100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2546100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2424300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2382600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2386300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1892000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E18" s="3">
         <v>277500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>298400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>386600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>402800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>350000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>301000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,56 +1050,60 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E21" s="3">
         <v>407500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>431100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>508100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>528900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1077,18 +1113,21 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3500</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1104,72 +1143,81 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E23" s="3">
         <v>275500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>301100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>386700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>401700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>350500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>299700</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="E24" s="3">
         <v>57900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>70400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>120400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>129700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>75000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>95900</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E26" s="3">
         <v>217600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>230700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>266300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>272000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>275500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>203800</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E27" s="3">
         <v>217600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>230700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>266300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>272000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>275500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>203800</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,12 +1359,12 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
         <v>34800</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E33" s="3">
         <v>217600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>230700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>301100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>272000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>275500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>203800</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E35" s="3">
         <v>217600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>230700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>301100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>272000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>275500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>203800</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,17 +1646,18 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>888900</v>
+      </c>
+      <c r="E41" s="3">
         <v>211200</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,12 +1673,15 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,24 +1709,27 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>361000</v>
+      </c>
+      <c r="E43" s="3">
         <v>443600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>459800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>463100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,24 +1742,27 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>266900</v>
+      </c>
+      <c r="E44" s="3">
         <v>277900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>278700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>275700</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1680,24 +1775,27 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E45" s="3">
         <v>69200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>48300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>55700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,24 +1808,27 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1590500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1001900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>786800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>794500</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,9 +1841,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,24 +1874,27 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>468300</v>
+      </c>
+      <c r="E48" s="3">
         <v>490400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>261600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>231200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,24 +1907,27 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4689900</v>
+      </c>
+      <c r="E49" s="3">
         <v>4591600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4715800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4885900</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,24 +2006,27 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>127300</v>
+      </c>
+      <c r="E52" s="3">
         <v>74400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>77400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>81200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6876000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6158300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5841600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5992800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5727300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5807400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6141700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,23 +2138,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>235100</v>
+      </c>
+      <c r="E57" s="3">
         <v>208000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>217400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>222400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,18 +2168,21 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>886800</v>
+      </c>
+      <c r="E58" s="3">
         <v>3900</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,27 +2198,30 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>562800</v>
+      </c>
+      <c r="E59" s="3">
         <v>497300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>423600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>405800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,24 +2234,27 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1684700</v>
+      </c>
+      <c r="E60" s="3">
         <v>709200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>641000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>628200</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,18 +2267,21 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>907700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1321000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2158,24 +2300,27 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>562600</v>
+      </c>
+      <c r="E62" s="3">
         <v>585300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>374200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>370000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3155400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2618100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1018500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1002300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1050800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1018600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1187600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,24 +2612,27 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>126400</v>
+      </c>
+      <c r="E72" s="3">
         <v>93100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4901300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4989900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3720600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3540200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4823100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4990500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4676500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4788800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4954100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E81" s="3">
         <v>217600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>230700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>301100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>272000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>275500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>203800</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,26 +2899,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>132600</v>
+      </c>
+      <c r="E83" s="3">
         <v>128500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>130000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>121400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>127200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,27 +3094,30 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>283900</v>
+      </c>
+      <c r="E89" s="3">
         <v>397500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>359100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>417000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,26 +3145,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-77800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-72200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-48900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-49100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,27 +3241,30 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-78400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-75500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-59400</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,27 +3421,30 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>492500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-107700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-324600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-304200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-357600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,18 +3454,21 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,26 +3487,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>677700</v>
+      </c>
+      <c r="E102" s="3">
         <v>211200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3266,10 +3517,13 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NVST_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVST_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>NVST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2282000</v>
+        <v>2508900</v>
       </c>
       <c r="E8" s="3">
-        <v>2751600</v>
+        <v>1929100</v>
       </c>
       <c r="F8" s="3">
+        <v>2284800</v>
+      </c>
+      <c r="G8" s="3">
         <v>2844500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2810900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2785400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2736300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2193000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1070000</v>
+        <v>1035700</v>
       </c>
       <c r="E9" s="3">
-        <v>1238500</v>
+        <v>856000</v>
       </c>
       <c r="F9" s="3">
+        <v>2171600</v>
+      </c>
+      <c r="G9" s="3">
         <v>1242700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1189700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1184300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1214400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1079500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1212000</v>
+        <v>1473200</v>
       </c>
       <c r="E10" s="3">
-        <v>1513100</v>
+        <v>1073100</v>
       </c>
       <c r="F10" s="3">
+        <v>113200</v>
+      </c>
+      <c r="G10" s="3">
         <v>1601800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1621200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1601100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1521900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1113500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,41 +838,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100800</v>
+        <v>100500</v>
       </c>
       <c r="E12" s="3">
-        <v>154700</v>
+        <v>86700</v>
       </c>
       <c r="F12" s="3">
+        <v>133100</v>
+      </c>
+      <c r="G12" s="3">
         <v>172000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>172400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>142800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>133800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>82400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,20 +907,23 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>180400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>93400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>129400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -918,15 +937,18 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2248700</v>
+        <v>2202700</v>
       </c>
       <c r="E17" s="3">
-        <v>2474100</v>
+        <v>1885600</v>
       </c>
       <c r="F17" s="3">
+        <v>2049100</v>
+      </c>
+      <c r="G17" s="3">
         <v>2546100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2424300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2382600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2386300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1892000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>33300</v>
+        <v>306200</v>
       </c>
       <c r="E18" s="3">
-        <v>277500</v>
+        <v>43500</v>
       </c>
       <c r="F18" s="3">
+        <v>235700</v>
+      </c>
+      <c r="G18" s="3">
         <v>298400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>386600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>402800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>350000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>301000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,62 +1083,66 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-900</v>
+        <v>2400</v>
       </c>
       <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>165000</v>
+        <v>432200</v>
       </c>
       <c r="E21" s="3">
-        <v>407500</v>
+        <v>175100</v>
       </c>
       <c r="F21" s="3">
+        <v>365700</v>
+      </c>
+      <c r="G21" s="3">
         <v>431100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>508100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>528900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1116,21 +1152,24 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E22" s="3">
         <v>62500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,78 +1185,87 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-30100</v>
+        <v>254500</v>
       </c>
       <c r="E23" s="3">
-        <v>275500</v>
+        <v>-20000</v>
       </c>
       <c r="F23" s="3">
+        <v>233700</v>
+      </c>
+      <c r="G23" s="3">
         <v>301100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>386700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>401700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>350500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>299700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-63400</v>
+        <v>-9000</v>
       </c>
       <c r="E24" s="3">
-        <v>57900</v>
+        <v>-62500</v>
       </c>
       <c r="F24" s="3">
+        <v>49600</v>
+      </c>
+      <c r="G24" s="3">
         <v>70400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>120400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>129700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>75000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>95900</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>33300</v>
+        <v>263500</v>
       </c>
       <c r="E26" s="3">
-        <v>217600</v>
+        <v>42500</v>
       </c>
       <c r="F26" s="3">
+        <v>184100</v>
+      </c>
+      <c r="G26" s="3">
         <v>230700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>266300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>272000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>275500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>203800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>33300</v>
+        <v>263500</v>
       </c>
       <c r="E27" s="3">
-        <v>217600</v>
+        <v>42500</v>
       </c>
       <c r="F27" s="3">
+        <v>184100</v>
+      </c>
+      <c r="G27" s="3">
         <v>230700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>266300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>272000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>275500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>203800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,27 +1404,30 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="D29" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F29" s="3">
+        <v>33500</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
         <v>34800</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>900</v>
+        <v>-2400</v>
       </c>
       <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>340500</v>
+      </c>
+      <c r="E33" s="3">
         <v>33300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>217600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>230700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>301100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>272000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>275500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>203800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>340500</v>
+      </c>
+      <c r="E35" s="3">
         <v>33300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>217600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>230700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>301100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>272000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>275500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>203800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,20 +1732,21 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1073600</v>
+      </c>
+      <c r="E41" s="3">
         <v>888900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>211200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,12 +1762,15 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,27 +1801,30 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>331900</v>
+      </c>
+      <c r="E43" s="3">
         <v>361000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>443600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>459800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>463100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1745,27 +1837,30 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>263800</v>
+      </c>
+      <c r="E44" s="3">
         <v>266900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>277900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>278700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>275700</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,27 +1873,30 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>166500</v>
+      </c>
+      <c r="E45" s="3">
         <v>73700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>69200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>48300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>55700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,27 +1909,30 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1835800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1590500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1001900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>786800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>794500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1844,9 +1945,12 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1877,27 +1981,30 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>392200</v>
+      </c>
+      <c r="E48" s="3">
         <v>468300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>490400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>261600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>231200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1910,27 +2017,30 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4178400</v>
+      </c>
+      <c r="E49" s="3">
         <v>4689900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4591600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4715800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4885900</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,27 +2125,30 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>167800</v>
+      </c>
+      <c r="E52" s="3">
         <v>127300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>74400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>77400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>81200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6574200</v>
+      </c>
+      <c r="E54" s="3">
         <v>6876000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6158300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5841600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5992800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5727300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5807400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6141700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,26 +2268,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>185800</v>
+      </c>
+      <c r="E57" s="3">
         <v>235100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>208000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>217400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>222400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,21 +2301,24 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>432400</v>
+      </c>
+      <c r="E58" s="3">
         <v>886800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3900</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2201,30 +2334,33 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E59" s="3">
         <v>562800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>497300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>423600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>405800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,27 +2373,30 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1208200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1684700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>709200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>641000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>628200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2270,21 +2409,24 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>883400</v>
+      </c>
+      <c r="E61" s="3">
         <v>907700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1321000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2303,27 +2445,30 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>424600</v>
+      </c>
+      <c r="E62" s="3">
         <v>562600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>585300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>374200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>370000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2516600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3155400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2618100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1018500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1002300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1050800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1018600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1187600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,27 +2785,30 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>466900</v>
+      </c>
+      <c r="E72" s="3">
         <v>126400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>93100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4901300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4989900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4057600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3720600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3540200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4823100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4990500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4676500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4788800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4954100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>340500</v>
+      </c>
+      <c r="E81" s="3">
         <v>33300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>217600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>230700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>301100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>272000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>275500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>203800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,29 +3097,30 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>123600</v>
+      </c>
+      <c r="E83" s="3">
         <v>132600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>128500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>130000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>121400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>127200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,30 +3310,33 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>361600</v>
+      </c>
+      <c r="E89" s="3">
         <v>283900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>397500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>359100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>417000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,29 +3365,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-47700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-77800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-72200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-48900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-49100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,30 +3470,33 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>262700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-69100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-78400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-75500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-59400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,30 +3666,33 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-465600</v>
+      </c>
+      <c r="E100" s="3">
         <v>492500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-107700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-324600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-304200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-357600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,21 +3702,24 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-29600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,29 +3738,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>184700</v>
+      </c>
+      <c r="E102" s="3">
         <v>677700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>211200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3520,10 +3771,13 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NVST_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVST_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2569100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2508900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1929100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2284800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2844500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2810900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2785400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2736300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2193000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1076000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1035700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>856000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2171600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1242700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1189700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1184300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1214400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1079500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1493100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1473200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1073100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>113200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1601800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1621200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1601100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1521900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1113500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,44 +851,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E12" s="3">
         <v>100500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>86700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>133100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>172000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>172400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>142800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>133800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>82400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,24 +926,27 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E14" s="3">
         <v>93400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>129400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,15 +959,18 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2249900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2202700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1885600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2049100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2546100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2424300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2382600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2386300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1892000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>319200</v>
+      </c>
+      <c r="E18" s="3">
         <v>306200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>43500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>235700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>298400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>386600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>402800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>350000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>301000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,68 +1116,72 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>460100</v>
+      </c>
+      <c r="E21" s="3">
         <v>432200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>175100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>365700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>431100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>508100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>528900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,24 +1191,27 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E22" s="3">
         <v>54100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>62500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3500</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1188,84 +1227,93 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>283900</v>
+      </c>
+      <c r="E23" s="3">
         <v>254500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>233700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>301100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>386700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>401700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>350500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>299700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-9000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-62500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>49600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>70400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>120400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>129700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>75000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>95900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E26" s="3">
         <v>263500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>42500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>184100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>230700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>266300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>272000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>275500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>203800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E27" s="3">
         <v>263500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>42500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>184100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>230700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>266300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>272000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>275500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>203800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,30 +1464,33 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E29" s="3">
         <v>77000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-9200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>33500</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>34800</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E33" s="3">
         <v>340500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>33300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>217600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>230700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>301100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>272000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>275500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>203800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E35" s="3">
         <v>340500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>33300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>217600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>230700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>301100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>272000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>275500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>203800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,23 +1818,24 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>606900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1073600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>888900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>211200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,12 +1851,15 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,30 +1893,33 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>393500</v>
+      </c>
+      <c r="E43" s="3">
         <v>331900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>361000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>443600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>459800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>463100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1840,30 +1932,33 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300800</v>
+      </c>
+      <c r="E44" s="3">
         <v>263800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>266900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>277900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>278700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>275700</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1876,30 +1971,33 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>123400</v>
+      </c>
+      <c r="E45" s="3">
         <v>166500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>73700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>69200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>48300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>55700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,30 +2010,33 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1424600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1835800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1590500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1001900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>786800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>794500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1948,9 +2049,12 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1984,30 +2088,33 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>425400</v>
+      </c>
+      <c r="E48" s="3">
         <v>392200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>468300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>490400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>261600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>231200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,30 +2127,33 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4583300</v>
+      </c>
+      <c r="E49" s="3">
         <v>4178400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4689900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4591600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4715800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4885900</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,30 +2244,33 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>153700</v>
+      </c>
+      <c r="E52" s="3">
         <v>167800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>127300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>74400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>77400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>81200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6587000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6574200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6876000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6158300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5841600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5992800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5727300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5807400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6141700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,29 +2398,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>228300</v>
+      </c>
+      <c r="E57" s="3">
         <v>185800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>235100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>208000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>217400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>222400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2304,24 +2434,27 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E58" s="3">
         <v>432400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>886800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2337,33 +2470,36 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>498400</v>
+      </c>
+      <c r="E59" s="3">
         <v>590000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>562800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>497300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>423600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>405800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2376,30 +2512,33 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1236700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1208200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1684700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>709200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>641000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>628200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,24 +2551,27 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>870700</v>
+      </c>
+      <c r="E61" s="3">
         <v>883400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>907700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1321000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2448,30 +2590,33 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>272700</v>
+      </c>
+      <c r="E62" s="3">
         <v>424600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>562600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>585300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>374200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>370000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2380100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2516600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3155400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2618100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1018500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1002300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1050800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1018600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1187600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,30 +2958,33 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>731400</v>
+      </c>
+      <c r="E72" s="3">
         <v>466900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>126400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>93100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4901300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4989900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4206900</v>
+      </c>
+      <c r="E76" s="3">
         <v>4057600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3720600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3540200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4823100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4990500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4676500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4788800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4954100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>243100</v>
+      </c>
+      <c r="E81" s="3">
         <v>340500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>33300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>217600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>230700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>301100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>272000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>275500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>203800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,32 +3295,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>137800</v>
+      </c>
+      <c r="E83" s="3">
         <v>123600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>132600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>128500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>130000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>121400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>127200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,33 +3526,36 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>182700</v>
+      </c>
+      <c r="E89" s="3">
         <v>361600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>283900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>397500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>359100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>417000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,32 +3585,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-75700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-54700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-47700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-77800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-72200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-48900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-49100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,33 +3699,36 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-657300</v>
+      </c>
+      <c r="E94" s="3">
         <v>262700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-69100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-78400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-75500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-59400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,33 +3911,36 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-465600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>492500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-107700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-324600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-304200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-357600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3705,24 +3950,27 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E101" s="3">
         <v>26000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-29600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,32 +3989,35 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-466700</v>
+      </c>
+      <c r="E102" s="3">
         <v>184700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>677700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>211200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3774,10 +4025,13 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NVST_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVST_YR_FIN.xlsx
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1076000</v>
+        <v>1080700</v>
       </c>
       <c r="E9" s="3">
         <v>1035700</v>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1493100</v>
+        <v>1488400</v>
       </c>
       <c r="E10" s="3">
         <v>1473200</v>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>47100</v>
+        <v>42400</v>
       </c>
       <c r="E14" s="3">
         <v>93400</v>
